--- a/project_design/JEB_DB 테이블 기술서.xlsx
+++ b/project_design/JEB_DB 테이블 기술서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="319">
   <si>
     <t>create 순서</t>
   </si>
@@ -315,7 +315,22 @@
     <t>answ_cont</t>
   </si>
   <si>
-    <t>answ_cont TEXT,</t>
+    <t>답변 내용 / 장문형일 경우 NULL</t>
+  </si>
+  <si>
+    <t>answ_cont VARCHAR(100),</t>
+  </si>
+  <si>
+    <t>긴 응답내용</t>
+  </si>
+  <si>
+    <t>answ_long</t>
+  </si>
+  <si>
+    <t>장문형일 경우 사용 / 그 외엔 NULL</t>
+  </si>
+  <si>
+    <t>answ_long TEXT,</t>
   </si>
   <si>
     <t>응답 날짜</t>
@@ -2355,13 +2370,16 @@
         <v>97</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
+      <c r="H9" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="K9" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -2369,29 +2387,52 @@
         <v>5.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="7" t="s">
-        <v>44</v>
+      <c r="G10" s="7"/>
+      <c r="H10" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7"/>
+      <c r="A11" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="J11" s="1" t="s">
+      <c r="G11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="J12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2424,10 +2465,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -2459,7 +2500,7 @@
         <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6">
@@ -2470,7 +2511,7 @@
         <v>92</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>38</v>
@@ -2482,7 +2523,7 @@
         <v>17</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7">
@@ -2490,10 +2531,10 @@
         <v>2.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>63</v>
@@ -2503,10 +2544,10 @@
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
@@ -2514,10 +2555,10 @@
         <v>3.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>38</v>
@@ -2527,7 +2568,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
@@ -2554,7 +2595,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2584,7 +2625,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -2639,7 +2680,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
@@ -2679,7 +2720,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
@@ -2715,27 +2756,27 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -2745,7 +2786,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40">
@@ -2770,16 +2811,21 @@
     </row>
     <row r="44">
       <c r="B44" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2800,22 +2846,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
@@ -2825,48 +2871,48 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -2876,59 +2922,59 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>56</v>
@@ -2936,7 +2982,7 @@
     </row>
     <row r="26">
       <c r="B26" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>61</v>
@@ -2944,7 +2990,7 @@
     </row>
     <row r="27">
       <c r="B27" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>65</v>
@@ -2952,15 +2998,15 @@
     </row>
     <row r="28">
       <c r="B28" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>96</v>
@@ -2968,40 +3014,40 @@
     </row>
     <row r="30">
       <c r="B30" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="14" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34">
       <c r="C34" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35">
       <c r="C35" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36">
       <c r="C36" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37">
@@ -3011,7 +3057,7 @@
     </row>
     <row r="38">
       <c r="B38" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
@@ -3021,22 +3067,22 @@
     </row>
     <row r="40">
       <c r="B40" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41">
       <c r="C41" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3056,10 +3102,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="16"/>
@@ -3069,37 +3115,37 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
@@ -3109,7 +3155,7 @@
     <row r="4">
       <c r="A4" s="22"/>
       <c r="E4" s="23" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
@@ -3118,19 +3164,19 @@
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="25" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="25" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -3140,13 +3186,13 @@
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="25" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12">
@@ -3154,18 +3200,18 @@
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15">
@@ -3175,7 +3221,7 @@
     </row>
     <row r="16">
       <c r="A16" s="27" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -3183,30 +3229,30 @@
     <row r="17">
       <c r="A17" s="22"/>
       <c r="B17" s="22" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C17" s="22"/>
     </row>
     <row r="18">
       <c r="A18" s="22"/>
       <c r="B18" s="22" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C18" s="22"/>
     </row>
     <row r="19">
       <c r="A19" s="22"/>
       <c r="B19" s="28" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C19" s="22"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H21" s="30"/>
       <c r="I21" s="31"/>
@@ -3214,59 +3260,59 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="32" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="33" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="33" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="33" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35">
@@ -3274,61 +3320,61 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="32" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="33" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="33" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="15" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="K48" s="16"/>
       <c r="L48" s="16"/>
@@ -3336,10 +3382,10 @@
     </row>
     <row r="49">
       <c r="B49" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H49" s="30"/>
       <c r="I49" s="31"/>
@@ -3347,7 +3393,7 @@
     </row>
     <row r="50">
       <c r="B50" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G50" s="34"/>
     </row>
@@ -3357,23 +3403,23 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" s="35"/>
       <c r="F55" s="21" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
@@ -3385,20 +3431,20 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="36" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B59" s="37"/>
       <c r="C59" s="22"/>
@@ -3406,7 +3452,7 @@
     </row>
     <row r="60">
       <c r="A60" s="38" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="40"/>
@@ -3418,20 +3464,20 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B63" s="42" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="27" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B66" s="40"/>
       <c r="C66" s="40"/>
@@ -3441,7 +3487,7 @@
     </row>
     <row r="67">
       <c r="A67" s="27" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B67" s="40"/>
       <c r="C67" s="40"/>
@@ -3451,7 +3497,7 @@
     </row>
     <row r="72">
       <c r="A72" s="21" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75">
@@ -3459,37 +3505,37 @@
     </row>
     <row r="87">
       <c r="A87" s="32" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="33" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="43" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93">
@@ -3504,7 +3550,7 @@
     <row r="94">
       <c r="A94" s="15"/>
       <c r="B94" s="15" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
@@ -3512,7 +3558,7 @@
     </row>
     <row r="95">
       <c r="A95" s="43" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B95" s="15" t="s">
         <v>15</v>
@@ -3530,7 +3576,7 @@
     </row>
     <row r="97">
       <c r="A97" s="15" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B97" s="15"/>
       <c r="C97" s="16"/>
@@ -3539,7 +3585,7 @@
     </row>
     <row r="98">
       <c r="A98" s="15" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B98" s="15"/>
       <c r="C98" s="16"/>
@@ -3555,7 +3601,7 @@
     </row>
     <row r="100">
       <c r="A100" s="15" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -3565,7 +3611,7 @@
     <row r="101">
       <c r="A101" s="16"/>
       <c r="B101" s="15" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
@@ -3573,7 +3619,7 @@
     </row>
     <row r="102">
       <c r="A102" s="15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
@@ -3583,7 +3629,7 @@
     <row r="103">
       <c r="A103" s="16"/>
       <c r="B103" s="14" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
@@ -3592,7 +3638,7 @@
     <row r="104">
       <c r="A104" s="16"/>
       <c r="B104" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
@@ -3601,7 +3647,7 @@
     <row r="105">
       <c r="A105" s="16"/>
       <c r="B105" s="15" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
@@ -3619,7 +3665,7 @@
     <row r="107">
       <c r="A107" s="16"/>
       <c r="B107" s="15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C107" s="16"/>
       <c r="D107" s="16"/>
@@ -3637,7 +3683,7 @@
     <row r="109">
       <c r="A109" s="16"/>
       <c r="B109" s="15" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
@@ -3647,7 +3693,7 @@
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="15" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
@@ -3655,7 +3701,7 @@
     <row r="111">
       <c r="A111" s="16"/>
       <c r="B111" s="15" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
@@ -3664,7 +3710,7 @@
     <row r="112">
       <c r="A112" s="16"/>
       <c r="B112" s="15" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
@@ -3672,7 +3718,7 @@
     </row>
     <row r="113">
       <c r="A113" s="15" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
@@ -3682,7 +3728,7 @@
     <row r="114">
       <c r="A114" s="16"/>
       <c r="B114" s="15" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
@@ -3695,127 +3741,127 @@
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="33" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="33" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131">
       <c r="B131" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133">
       <c r="B133" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134">
       <c r="B134" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135">
       <c r="B135" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="136">
       <c r="B136" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1"/>
       <c r="B139" s="14" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="143">
       <c r="B143" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144">
@@ -3842,7 +3888,7 @@
     </row>
     <row r="146">
       <c r="A146" s="45" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B146" s="22"/>
       <c r="C146" s="22"/>
@@ -3854,7 +3900,7 @@
     </row>
     <row r="147">
       <c r="A147" s="46" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B147" s="22"/>
       <c r="C147" s="22"/>
@@ -3866,7 +3912,7 @@
     </row>
     <row r="148">
       <c r="A148" s="27" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B148" s="40"/>
       <c r="C148" s="40"/>
@@ -3878,10 +3924,10 @@
     </row>
     <row r="149">
       <c r="A149" s="31" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B149" s="27" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C149" s="40"/>
       <c r="D149" s="22"/>
@@ -3893,7 +3939,7 @@
     <row r="150">
       <c r="A150" s="22"/>
       <c r="B150" s="28" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C150" s="22"/>
       <c r="D150" s="22"/>
@@ -3905,7 +3951,7 @@
     <row r="151">
       <c r="A151" s="22"/>
       <c r="B151" s="28" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C151" s="22"/>
       <c r="D151" s="22"/>
@@ -3917,7 +3963,7 @@
     <row r="152">
       <c r="A152" s="22"/>
       <c r="B152" s="27" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C152" s="40"/>
       <c r="D152" s="40"/>
@@ -3938,10 +3984,10 @@
     </row>
     <row r="154">
       <c r="A154" s="31" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C154" s="22"/>
       <c r="D154" s="22"/>
@@ -3952,80 +3998,80 @@
     </row>
     <row r="155">
       <c r="B155" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="156">
       <c r="B156" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="157">
       <c r="B157" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="160">
       <c r="C160" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="161">
       <c r="C161" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="162">
       <c r="C162" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -4051,89 +4097,89 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -4144,13 +4190,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
@@ -4160,7 +4206,7 @@
     </row>
     <row r="21">
       <c r="J21" s="21" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
@@ -4171,7 +4217,7 @@
     <row r="22">
       <c r="A22" s="1"/>
       <c r="J22" s="21" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
@@ -4181,7 +4227,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="J23" s="1"/>
     </row>
